--- a/biology/Histoire de la zoologie et de la botanique/Edward_Smith-Stanley_(13e_comte_de_Derby)/Edward_Smith-Stanley_(13e_comte_de_Derby).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Smith-Stanley_(13e_comte_de_Derby)/Edward_Smith-Stanley_(13e_comte_de_Derby).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Edward Smith-Stanley dit lord Stanley (21 avril 1775 – 30 juin 1851), 13e comte de Derby, est un homme politique, propriétaire terrien, fermier, collectionneur d’art et naturaliste britannique.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le quatrième enfant et seul fils d'Edward Smith-Stanley, 12e comte de Derby et d'Élisabeth Hamilton, la fille de James Hamilton, 6e duc de Hamilton. Le 30 juin 1798, il épouse Charlotte Margaret Hornby, la fille du révérend Geoffrey Hornby.
 Lord Stanley est membre du parlement pour Preston et Lancaster de 1796 à 1832. Il est anobli sous le titre de baron Stanley de Bickerstaffe, de Bickerstaffe dans le comté palatin de Lancastre.
@@ -546,7 +560,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comte de Derby</t>
         </is>
@@ -576,7 +592,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Edward Smith-Stanley, 13th Earl of Derby » (voir la liste des auteurs).</t>
         </is>
